--- a/data/NY_Mesonet_Weather.xlsx
+++ b/data/NY_Mesonet_Weather.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
-  <workbookPr defaultThemeVersion="202300"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eyus-my.sharepoint.com/personal/brian_killough_ey_com/Documents/Documents/EY-Challenge_2025/NewYork_Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Emna-Mariem\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="289" documentId="8_{9025A5BF-09D0-6241-A455-8180A5A768FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D71FF49A-B61E-8541-9998-86F7495BD862}"/>
   <bookViews>
-    <workbookView xWindow="300" yWindow="740" windowWidth="29100" windowHeight="16940" xr2:uid="{5C9177A8-5437-314A-8613-CE1405B56B9B}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10524" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="3" r:id="rId1"/>
@@ -536,9 +535,6 @@
     <t>Air Temp at Surface [degC]</t>
   </si>
   <si>
-    <t>Date / Time</t>
-  </si>
-  <si>
     <t>Relative Humidity [percent]</t>
   </si>
   <si>
@@ -550,15 +546,18 @@
   <si>
     <t>Solar Flux [W/m^2]</t>
   </si>
+  <si>
+    <t>Date/Time</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="18">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1049,48 +1048,48 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="20 % - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20 % - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20 % - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20 % - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20 % - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20 % - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40 % - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40 % - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40 % - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40 % - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40 % - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40 % - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60 % - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60 % - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60 % - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60 % - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60 % - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60 % - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
     <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
     <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
     <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
     <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
     <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
     <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Avertissement" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Calcul" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Cellule liée" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Commentaire" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Entrée" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Insatisfaisant" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Neutre" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Satisfaisant" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Sortie" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Texte explicatif" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Titre" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Titre 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Titre 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Titre 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Titre 4" xfId="5" builtinId="19" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Vérification" xfId="13" builtinId="23" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1111,9 +1110,9 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="fr-FR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1150,6 +1149,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1175,7 +1175,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="fr-FR"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2242,7 +2242,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-D502-2441-8DA1-F54BFFE097B2}"/>
             </c:ext>
@@ -2256,11 +2256,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="913726959"/>
-        <c:axId val="493604623"/>
+        <c:axId val="1399444464"/>
+        <c:axId val="1399435760"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="913726959"/>
+        <c:axId val="1399444464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2313,15 +2313,15 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="493604623"/>
+        <c:crossAx val="1399435760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="493604623"/>
+        <c:axId val="1399435760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="18"/>
@@ -2376,10 +2376,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="913726959"/>
+        <c:crossAx val="1399444464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2393,14 +2393,14 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2424,7 +2424,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="fr-FR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2436,9 +2436,9 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="fr-FR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2475,6 +2475,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2500,7 +2501,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="fr-FR"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3567,7 +3568,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-FDB5-E346-9E29-767942B66A90}"/>
             </c:ext>
@@ -3581,11 +3582,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="913726959"/>
-        <c:axId val="493604623"/>
+        <c:axId val="1399441744"/>
+        <c:axId val="1399445552"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="913726959"/>
+        <c:axId val="1399441744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3638,15 +3639,15 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="493604623"/>
+        <c:crossAx val="1399445552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="493604623"/>
+        <c:axId val="1399445552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5"/>
@@ -3702,10 +3703,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="913726959"/>
+        <c:crossAx val="1399441744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
@@ -3720,14 +3721,14 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -3751,7 +3752,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="fr-FR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3763,9 +3764,9 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="fr-FR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3827,7 +3828,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="fr-FR"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4894,7 +4895,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-AAF8-C54D-927F-1E9D1199F497}"/>
             </c:ext>
@@ -4908,11 +4909,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="913726959"/>
-        <c:axId val="493604623"/>
+        <c:axId val="1399446640"/>
+        <c:axId val="1399442288"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="913726959"/>
+        <c:axId val="1399446640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4965,15 +4966,15 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="493604623"/>
+        <c:crossAx val="1399442288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="493604623"/>
+        <c:axId val="1399442288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1000"/>
@@ -5029,10 +5030,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="913726959"/>
+        <c:crossAx val="1399446640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5046,14 +5047,14 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -5077,7 +5078,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="fr-FR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5089,9 +5090,9 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="fr-FR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5128,6 +5129,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5153,7 +5155,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="fr-FR"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -6220,7 +6222,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-69CC-5C4E-81B0-EFB5D5A0BCD4}"/>
             </c:ext>
@@ -6234,11 +6236,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="902382943"/>
-        <c:axId val="902384655"/>
+        <c:axId val="1399445008"/>
+        <c:axId val="1399432496"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="902382943"/>
+        <c:axId val="1399445008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6291,15 +6293,15 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="902384655"/>
+        <c:crossAx val="1399432496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="902384655"/>
+        <c:axId val="1399432496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="20"/>
@@ -6354,10 +6356,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="902382943"/>
+        <c:crossAx val="1399445008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6371,14 +6373,14 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -6402,7 +6404,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="fr-FR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -6414,9 +6416,9 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="fr-FR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -6453,6 +6455,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6478,7 +6481,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="fr-FR"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -7545,7 +7548,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-A91B-2A46-A5F8-BE885185D6EF}"/>
             </c:ext>
@@ -7559,11 +7562,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="902382943"/>
-        <c:axId val="902384655"/>
+        <c:axId val="1399437936"/>
+        <c:axId val="1399439024"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="902382943"/>
+        <c:axId val="1399437936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7616,15 +7619,15 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="902384655"/>
+        <c:crossAx val="1399439024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="902384655"/>
+        <c:axId val="1399439024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5"/>
@@ -7680,10 +7683,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="902382943"/>
+        <c:crossAx val="1399437936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
@@ -7698,14 +7701,14 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -7729,7 +7732,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="fr-FR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -7741,9 +7744,9 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="fr-FR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -7805,7 +7808,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="fr-FR"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -8872,7 +8875,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-713B-AD41-85E2-C2742C416CB8}"/>
             </c:ext>
@@ -8886,11 +8889,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="902382943"/>
-        <c:axId val="902384655"/>
+        <c:axId val="1399435216"/>
+        <c:axId val="1399438480"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="902382943"/>
+        <c:axId val="1399435216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8943,15 +8946,15 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="902384655"/>
+        <c:crossAx val="1399438480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="902384655"/>
+        <c:axId val="1399438480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1000"/>
@@ -9007,10 +9010,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="902382943"/>
+        <c:crossAx val="1399435216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9024,14 +9027,14 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -9055,7 +9058,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="fr-FR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -12422,7 +12425,7 @@
         <xdr:cNvPr id="2" name="TextBox 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9BE427BB-CF54-4DB5-08D4-E34AC037AC49}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9BE427BB-CF54-4DB5-08D4-E34AC037AC49}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12561,7 +12564,7 @@
         <xdr:cNvPr id="4" name="TextBox 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A75DCED5-46C5-9C49-8D28-187F65D91843}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A75DCED5-46C5-9C49-8D28-187F65D91843}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12690,7 +12693,7 @@
         <xdr:cNvPr id="3" name="TextBox 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC574823-F175-994A-B189-6E2782C6456A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BC574823-F175-994A-B189-6E2782C6456A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12785,7 +12788,7 @@
         <xdr:cNvPr id="2" name="TextBox 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{187492DE-6F20-454D-A176-4BFC88D0A5F8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{187492DE-6F20-454D-A176-4BFC88D0A5F8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13038,7 +13041,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9505556B-AD2F-2585-FF90-070606374040}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9505556B-AD2F-2585-FF90-070606374040}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13087,7 +13090,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1CA5A067-8557-86B7-5486-42E0437ADDA7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1CA5A067-8557-86B7-5486-42E0437ADDA7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13123,7 +13126,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2007869C-5D03-794F-BCAE-1A06C4B3ACBF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2007869C-5D03-794F-BCAE-1A06C4B3ACBF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13161,7 +13164,7 @@
         <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49871BAB-50A8-D342-A512-82BAE38F6AEA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{49871BAB-50A8-D342-A512-82BAE38F6AEA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13204,7 +13207,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DAD30D45-344C-0B31-5D3D-696935DA597E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DAD30D45-344C-0B31-5D3D-696935DA597E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13240,7 +13243,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22C9C6F8-8E5E-DD4D-9925-E237AC800F89}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{22C9C6F8-8E5E-DD4D-9925-E237AC800F89}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13278,7 +13281,7 @@
         <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B518ABD3-5008-414B-96B0-972B0AA6857E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B518ABD3-5008-414B-96B0-972B0AA6857E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13617,16 +13620,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{702BC67F-1685-4940-87FF-9C29D821C10C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="3.1640625" customWidth="1"/>
+    <col min="1" max="1" width="3.1796875" customWidth="1"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13635,12 +13638,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74911D24-AC81-E347-AD0A-85796086D5F6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -13648,12 +13651,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81152529-4242-0F4B-A091-1EFB0916EE4C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -13661,44 +13664,42 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA16F082-FC80-9D47-8880-C9EF1D887123}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F170"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K81" sqref="K81"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="25.1640625" customWidth="1"/>
+    <col min="1" max="1" width="25.1796875" customWidth="1"/>
     <col min="2" max="2" width="18" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.1640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.6328125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.6328125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.1796875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6328125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="30">
       <c r="A1" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>169</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -13718,7 +13719,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6">
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
@@ -13738,7 +13739,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6">
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
@@ -13758,7 +13759,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6">
       <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
@@ -13778,7 +13779,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6">
       <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
@@ -13798,7 +13799,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6">
       <c r="A7" s="4" t="s">
         <v>5</v>
       </c>
@@ -13818,7 +13819,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6">
       <c r="A8" s="4" t="s">
         <v>6</v>
       </c>
@@ -13838,7 +13839,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6">
       <c r="A9" s="4" t="s">
         <v>7</v>
       </c>
@@ -13858,7 +13859,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6">
       <c r="A10" s="4" t="s">
         <v>8</v>
       </c>
@@ -13878,7 +13879,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6">
       <c r="A11" s="4" t="s">
         <v>9</v>
       </c>
@@ -13898,7 +13899,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6">
       <c r="A12" s="4" t="s">
         <v>10</v>
       </c>
@@ -13918,7 +13919,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6">
       <c r="A13" s="4" t="s">
         <v>11</v>
       </c>
@@ -13938,7 +13939,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6">
       <c r="A14" s="4" t="s">
         <v>12</v>
       </c>
@@ -13958,7 +13959,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6">
       <c r="A15" s="4" t="s">
         <v>13</v>
       </c>
@@ -13978,7 +13979,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6">
       <c r="A16" s="4" t="s">
         <v>14</v>
       </c>
@@ -13998,7 +13999,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6">
       <c r="A17" s="4" t="s">
         <v>15</v>
       </c>
@@ -14018,7 +14019,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6">
       <c r="A18" s="4" t="s">
         <v>16</v>
       </c>
@@ -14038,7 +14039,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6">
       <c r="A19" s="4" t="s">
         <v>17</v>
       </c>
@@ -14058,7 +14059,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6">
       <c r="A20" s="4" t="s">
         <v>18</v>
       </c>
@@ -14078,7 +14079,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6">
       <c r="A21" s="4" t="s">
         <v>19</v>
       </c>
@@ -14098,7 +14099,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6">
       <c r="A22" s="4" t="s">
         <v>20</v>
       </c>
@@ -14118,7 +14119,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6">
       <c r="A23" s="4" t="s">
         <v>21</v>
       </c>
@@ -14138,7 +14139,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6">
       <c r="A24" s="4" t="s">
         <v>22</v>
       </c>
@@ -14158,7 +14159,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6">
       <c r="A25" s="4" t="s">
         <v>23</v>
       </c>
@@ -14178,7 +14179,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6">
       <c r="A26" s="4" t="s">
         <v>24</v>
       </c>
@@ -14198,7 +14199,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6">
       <c r="A27" s="4" t="s">
         <v>25</v>
       </c>
@@ -14218,7 +14219,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6">
       <c r="A28" s="4" t="s">
         <v>26</v>
       </c>
@@ -14238,7 +14239,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6">
       <c r="A29" s="4" t="s">
         <v>27</v>
       </c>
@@ -14258,7 +14259,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6">
       <c r="A30" s="4" t="s">
         <v>28</v>
       </c>
@@ -14278,7 +14279,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6">
       <c r="A31" s="4" t="s">
         <v>29</v>
       </c>
@@ -14298,7 +14299,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6">
       <c r="A32" s="4" t="s">
         <v>30</v>
       </c>
@@ -14318,7 +14319,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6">
       <c r="A33" s="4" t="s">
         <v>31</v>
       </c>
@@ -14338,7 +14339,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6">
       <c r="A34" s="4" t="s">
         <v>32</v>
       </c>
@@ -14358,7 +14359,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6">
       <c r="A35" s="4" t="s">
         <v>33</v>
       </c>
@@ -14378,7 +14379,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6">
       <c r="A36" s="4" t="s">
         <v>34</v>
       </c>
@@ -14398,7 +14399,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6">
       <c r="A37" s="4" t="s">
         <v>35</v>
       </c>
@@ -14418,7 +14419,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6">
       <c r="A38" s="4" t="s">
         <v>36</v>
       </c>
@@ -14438,7 +14439,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6">
       <c r="A39" s="4" t="s">
         <v>37</v>
       </c>
@@ -14458,7 +14459,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6">
       <c r="A40" s="4" t="s">
         <v>38</v>
       </c>
@@ -14478,7 +14479,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6">
       <c r="A41" s="4" t="s">
         <v>39</v>
       </c>
@@ -14498,7 +14499,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6">
       <c r="A42" s="4" t="s">
         <v>40</v>
       </c>
@@ -14518,7 +14519,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6">
       <c r="A43" s="4" t="s">
         <v>41</v>
       </c>
@@ -14538,7 +14539,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6">
       <c r="A44" s="4" t="s">
         <v>42</v>
       </c>
@@ -14558,7 +14559,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6">
       <c r="A45" s="4" t="s">
         <v>43</v>
       </c>
@@ -14578,7 +14579,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6">
       <c r="A46" s="4" t="s">
         <v>44</v>
       </c>
@@ -14598,7 +14599,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6">
       <c r="A47" s="4" t="s">
         <v>45</v>
       </c>
@@ -14618,7 +14619,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6">
       <c r="A48" s="4" t="s">
         <v>46</v>
       </c>
@@ -14638,7 +14639,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6">
       <c r="A49" s="4" t="s">
         <v>47</v>
       </c>
@@ -14658,7 +14659,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6">
       <c r="A50" s="4" t="s">
         <v>48</v>
       </c>
@@ -14678,7 +14679,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6">
       <c r="A51" s="4" t="s">
         <v>49</v>
       </c>
@@ -14698,7 +14699,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6">
       <c r="A52" s="4" t="s">
         <v>50</v>
       </c>
@@ -14718,7 +14719,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6">
       <c r="A53" s="4" t="s">
         <v>51</v>
       </c>
@@ -14738,7 +14739,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6">
       <c r="A54" s="4" t="s">
         <v>52</v>
       </c>
@@ -14758,7 +14759,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6">
       <c r="A55" s="4" t="s">
         <v>53</v>
       </c>
@@ -14778,7 +14779,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6">
       <c r="A56" s="4" t="s">
         <v>54</v>
       </c>
@@ -14798,7 +14799,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6">
       <c r="A57" s="4" t="s">
         <v>55</v>
       </c>
@@ -14818,7 +14819,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6">
       <c r="A58" s="4" t="s">
         <v>56</v>
       </c>
@@ -14838,7 +14839,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6">
       <c r="A59" s="4" t="s">
         <v>57</v>
       </c>
@@ -14858,7 +14859,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6">
       <c r="A60" s="4" t="s">
         <v>58</v>
       </c>
@@ -14878,7 +14879,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6">
       <c r="A61" s="4" t="s">
         <v>59</v>
       </c>
@@ -14898,7 +14899,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6">
       <c r="A62" s="4" t="s">
         <v>60</v>
       </c>
@@ -14918,7 +14919,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6">
       <c r="A63" s="4" t="s">
         <v>61</v>
       </c>
@@ -14938,7 +14939,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6">
       <c r="A64" s="4" t="s">
         <v>62</v>
       </c>
@@ -14958,7 +14959,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:6">
       <c r="A65" s="4" t="s">
         <v>63</v>
       </c>
@@ -14978,7 +14979,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:6">
       <c r="A66" s="4" t="s">
         <v>64</v>
       </c>
@@ -14998,7 +14999,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:6">
       <c r="A67" s="4" t="s">
         <v>65</v>
       </c>
@@ -15018,7 +15019,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:6">
       <c r="A68" s="4" t="s">
         <v>66</v>
       </c>
@@ -15038,7 +15039,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:6">
       <c r="A69" s="4" t="s">
         <v>67</v>
       </c>
@@ -15058,7 +15059,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:6">
       <c r="A70" s="4" t="s">
         <v>68</v>
       </c>
@@ -15078,7 +15079,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:6">
       <c r="A71" s="4" t="s">
         <v>69</v>
       </c>
@@ -15098,7 +15099,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:6">
       <c r="A72" s="4" t="s">
         <v>70</v>
       </c>
@@ -15118,7 +15119,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:6">
       <c r="A73" s="4" t="s">
         <v>71</v>
       </c>
@@ -15138,7 +15139,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:6">
       <c r="A74" s="4" t="s">
         <v>72</v>
       </c>
@@ -15158,7 +15159,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:6">
       <c r="A75" s="4" t="s">
         <v>73</v>
       </c>
@@ -15178,7 +15179,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:6">
       <c r="A76" s="4" t="s">
         <v>74</v>
       </c>
@@ -15198,7 +15199,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:6">
       <c r="A77" s="4" t="s">
         <v>75</v>
       </c>
@@ -15218,7 +15219,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:6">
       <c r="A78" s="4" t="s">
         <v>76</v>
       </c>
@@ -15238,7 +15239,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:6">
       <c r="A79" s="4" t="s">
         <v>77</v>
       </c>
@@ -15258,7 +15259,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:6">
       <c r="A80" s="4" t="s">
         <v>78</v>
       </c>
@@ -15278,7 +15279,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:6">
       <c r="A81" s="4" t="s">
         <v>79</v>
       </c>
@@ -15298,7 +15299,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:6">
       <c r="A82" s="4" t="s">
         <v>80</v>
       </c>
@@ -15318,7 +15319,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:6">
       <c r="A83" s="4" t="s">
         <v>81</v>
       </c>
@@ -15338,7 +15339,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:6">
       <c r="A84" s="4" t="s">
         <v>82</v>
       </c>
@@ -15358,7 +15359,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:6">
       <c r="A85" s="4" t="s">
         <v>83</v>
       </c>
@@ -15378,7 +15379,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:6">
       <c r="A86" s="4" t="s">
         <v>84</v>
       </c>
@@ -15398,7 +15399,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:6">
       <c r="A87" s="4" t="s">
         <v>85</v>
       </c>
@@ -15418,7 +15419,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:6">
       <c r="A88" s="4" t="s">
         <v>86</v>
       </c>
@@ -15438,7 +15439,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:6">
       <c r="A89" s="4" t="s">
         <v>87</v>
       </c>
@@ -15458,7 +15459,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:6">
       <c r="A90" s="4" t="s">
         <v>88</v>
       </c>
@@ -15478,7 +15479,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:6">
       <c r="A91" s="4" t="s">
         <v>89</v>
       </c>
@@ -15498,7 +15499,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:6">
       <c r="A92" s="4" t="s">
         <v>90</v>
       </c>
@@ -15518,7 +15519,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:6">
       <c r="A93" s="4" t="s">
         <v>91</v>
       </c>
@@ -15538,7 +15539,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:6">
       <c r="A94" s="4" t="s">
         <v>92</v>
       </c>
@@ -15558,7 +15559,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:6">
       <c r="A95" s="4" t="s">
         <v>93</v>
       </c>
@@ -15578,7 +15579,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:6">
       <c r="A96" s="4" t="s">
         <v>94</v>
       </c>
@@ -15598,7 +15599,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:6">
       <c r="A97" s="4" t="s">
         <v>95</v>
       </c>
@@ -15618,7 +15619,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:6">
       <c r="A98" s="4" t="s">
         <v>96</v>
       </c>
@@ -15638,7 +15639,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:6">
       <c r="A99" s="4" t="s">
         <v>97</v>
       </c>
@@ -15658,7 +15659,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:6">
       <c r="A100" s="4" t="s">
         <v>98</v>
       </c>
@@ -15678,7 +15679,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:6">
       <c r="A101" s="4" t="s">
         <v>99</v>
       </c>
@@ -15698,7 +15699,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:6">
       <c r="A102" s="4" t="s">
         <v>100</v>
       </c>
@@ -15718,7 +15719,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:6">
       <c r="A103" s="4" t="s">
         <v>101</v>
       </c>
@@ -15738,7 +15739,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:6">
       <c r="A104" s="4" t="s">
         <v>102</v>
       </c>
@@ -15758,7 +15759,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:6">
       <c r="A105" s="4" t="s">
         <v>103</v>
       </c>
@@ -15778,7 +15779,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:6">
       <c r="A106" s="4" t="s">
         <v>104</v>
       </c>
@@ -15798,7 +15799,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:6">
       <c r="A107" s="4" t="s">
         <v>105</v>
       </c>
@@ -15818,7 +15819,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:6">
       <c r="A108" s="4" t="s">
         <v>106</v>
       </c>
@@ -15838,7 +15839,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:6">
       <c r="A109" s="4" t="s">
         <v>107</v>
       </c>
@@ -15858,7 +15859,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:6">
       <c r="A110" s="4" t="s">
         <v>108</v>
       </c>
@@ -15878,7 +15879,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:6">
       <c r="A111" s="4" t="s">
         <v>109</v>
       </c>
@@ -15898,7 +15899,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:6">
       <c r="A112" s="4" t="s">
         <v>110</v>
       </c>
@@ -15918,7 +15919,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:6">
       <c r="A113" s="4" t="s">
         <v>111</v>
       </c>
@@ -15938,7 +15939,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:6">
       <c r="A114" s="4" t="s">
         <v>112</v>
       </c>
@@ -15958,7 +15959,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:6">
       <c r="A115" s="4" t="s">
         <v>113</v>
       </c>
@@ -15978,7 +15979,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:6">
       <c r="A116" s="4" t="s">
         <v>114</v>
       </c>
@@ -15998,7 +15999,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:6">
       <c r="A117" s="4" t="s">
         <v>115</v>
       </c>
@@ -16018,7 +16019,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:6">
       <c r="A118" s="4" t="s">
         <v>116</v>
       </c>
@@ -16038,7 +16039,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:6">
       <c r="A119" s="4" t="s">
         <v>117</v>
       </c>
@@ -16058,7 +16059,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:6">
       <c r="A120" s="4" t="s">
         <v>118</v>
       </c>
@@ -16078,7 +16079,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:6">
       <c r="A121" s="4" t="s">
         <v>119</v>
       </c>
@@ -16098,7 +16099,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:6">
       <c r="A122" s="4" t="s">
         <v>120</v>
       </c>
@@ -16118,7 +16119,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:6">
       <c r="A123" s="4" t="s">
         <v>121</v>
       </c>
@@ -16138,7 +16139,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:6">
       <c r="A124" s="4" t="s">
         <v>122</v>
       </c>
@@ -16158,7 +16159,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:6">
       <c r="A125" s="4" t="s">
         <v>123</v>
       </c>
@@ -16178,7 +16179,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:6">
       <c r="A126" s="4" t="s">
         <v>124</v>
       </c>
@@ -16198,7 +16199,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:6">
       <c r="A127" s="4" t="s">
         <v>125</v>
       </c>
@@ -16218,7 +16219,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:6">
       <c r="A128" s="4" t="s">
         <v>126</v>
       </c>
@@ -16238,7 +16239,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:6">
       <c r="A129" s="4" t="s">
         <v>127</v>
       </c>
@@ -16258,7 +16259,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:6">
       <c r="A130" s="4" t="s">
         <v>128</v>
       </c>
@@ -16278,7 +16279,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:6">
       <c r="A131" s="4" t="s">
         <v>129</v>
       </c>
@@ -16298,7 +16299,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:6">
       <c r="A132" s="4" t="s">
         <v>130</v>
       </c>
@@ -16318,7 +16319,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:6">
       <c r="A133" s="4" t="s">
         <v>131</v>
       </c>
@@ -16338,7 +16339,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:6">
       <c r="A134" s="4" t="s">
         <v>132</v>
       </c>
@@ -16358,7 +16359,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:6">
       <c r="A135" s="4" t="s">
         <v>133</v>
       </c>
@@ -16378,7 +16379,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:6">
       <c r="A136" s="4" t="s">
         <v>134</v>
       </c>
@@ -16398,7 +16399,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:6">
       <c r="A137" s="4" t="s">
         <v>135</v>
       </c>
@@ -16418,7 +16419,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:6">
       <c r="A138" s="4" t="s">
         <v>136</v>
       </c>
@@ -16438,7 +16439,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:6">
       <c r="A139" s="4" t="s">
         <v>137</v>
       </c>
@@ -16458,7 +16459,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:6">
       <c r="A140" s="4" t="s">
         <v>138</v>
       </c>
@@ -16478,7 +16479,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:6">
       <c r="A141" s="4" t="s">
         <v>139</v>
       </c>
@@ -16498,7 +16499,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:6">
       <c r="A142" s="4" t="s">
         <v>140</v>
       </c>
@@ -16518,7 +16519,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:6">
       <c r="A143" s="4" t="s">
         <v>141</v>
       </c>
@@ -16538,7 +16539,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:6">
       <c r="A144" s="4" t="s">
         <v>142</v>
       </c>
@@ -16558,7 +16559,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:6">
       <c r="A145" s="4" t="s">
         <v>143</v>
       </c>
@@ -16578,7 +16579,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:6">
       <c r="A146" s="4" t="s">
         <v>144</v>
       </c>
@@ -16598,7 +16599,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:6">
       <c r="A147" s="4" t="s">
         <v>145</v>
       </c>
@@ -16618,7 +16619,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:6">
       <c r="A148" s="4" t="s">
         <v>146</v>
       </c>
@@ -16638,7 +16639,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:6">
       <c r="A149" s="4" t="s">
         <v>147</v>
       </c>
@@ -16658,7 +16659,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:6">
       <c r="A150" s="4" t="s">
         <v>148</v>
       </c>
@@ -16678,7 +16679,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:6">
       <c r="A151" s="4" t="s">
         <v>149</v>
       </c>
@@ -16698,7 +16699,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:6">
       <c r="A152" s="4" t="s">
         <v>150</v>
       </c>
@@ -16718,7 +16719,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:6">
       <c r="A153" s="4" t="s">
         <v>151</v>
       </c>
@@ -16738,7 +16739,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:6">
       <c r="A154" s="4" t="s">
         <v>152</v>
       </c>
@@ -16758,7 +16759,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:6">
       <c r="A155" s="4" t="s">
         <v>153</v>
       </c>
@@ -16778,7 +16779,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:6">
       <c r="A156" s="4" t="s">
         <v>154</v>
       </c>
@@ -16798,7 +16799,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:6">
       <c r="A157" s="4" t="s">
         <v>155</v>
       </c>
@@ -16818,7 +16819,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:6">
       <c r="A158" s="4" t="s">
         <v>156</v>
       </c>
@@ -16838,7 +16839,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:6">
       <c r="A159" s="4" t="s">
         <v>157</v>
       </c>
@@ -16858,7 +16859,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:6">
       <c r="A160" s="4" t="s">
         <v>158</v>
       </c>
@@ -16878,7 +16879,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:6">
       <c r="A161" s="4" t="s">
         <v>159</v>
       </c>
@@ -16898,7 +16899,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:6">
       <c r="A162" s="4" t="s">
         <v>160</v>
       </c>
@@ -16918,7 +16919,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:6">
       <c r="A163" s="4" t="s">
         <v>161</v>
       </c>
@@ -16938,7 +16939,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:6">
       <c r="A164" s="4" t="s">
         <v>162</v>
       </c>
@@ -16958,7 +16959,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:6">
       <c r="A165" s="4" t="s">
         <v>163</v>
       </c>
@@ -16978,7 +16979,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:6">
       <c r="A166" s="4" t="s">
         <v>164</v>
       </c>
@@ -16998,7 +16999,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:6">
       <c r="A167" s="4" t="s">
         <v>165</v>
       </c>
@@ -17018,7 +17019,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:6">
       <c r="A168" s="4" t="s">
         <v>166</v>
       </c>
@@ -17038,7 +17039,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:6">
       <c r="A169" s="4" t="s">
         <v>167</v>
       </c>
@@ -17058,7 +17059,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:6">
       <c r="A170" s="4" t="s">
         <v>168</v>
       </c>
@@ -17085,42 +17086,42 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{273709B7-FB19-664E-8F7F-8441238ADCE1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F170"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="23.83203125" customWidth="1"/>
-    <col min="2" max="2" width="18.83203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.1640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="23.81640625" customWidth="1"/>
+    <col min="2" max="2" width="18.81640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.453125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.1796875" style="1" customWidth="1"/>
     <col min="5" max="5" width="15" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.83203125" style="1"/>
+    <col min="6" max="6" width="10.81640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="30">
       <c r="A1" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>169</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -17140,7 +17141,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -17160,7 +17161,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -17180,7 +17181,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -17200,7 +17201,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -17220,7 +17221,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -17240,7 +17241,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -17260,7 +17261,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -17280,7 +17281,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -17300,7 +17301,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -17320,7 +17321,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -17340,7 +17341,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -17360,7 +17361,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -17380,7 +17381,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -17400,7 +17401,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -17420,7 +17421,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -17440,7 +17441,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -17460,7 +17461,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -17480,7 +17481,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -17500,7 +17501,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -17520,7 +17521,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -17540,7 +17541,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -17560,7 +17561,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -17580,7 +17581,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -17600,7 +17601,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -17620,7 +17621,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -17640,7 +17641,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -17660,7 +17661,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -17680,7 +17681,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -17700,7 +17701,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -17720,7 +17721,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -17740,7 +17741,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -17760,7 +17761,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -17780,7 +17781,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6">
       <c r="A35" t="s">
         <v>33</v>
       </c>
@@ -17800,7 +17801,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6">
       <c r="A36" t="s">
         <v>34</v>
       </c>
@@ -17820,7 +17821,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6">
       <c r="A37" t="s">
         <v>35</v>
       </c>
@@ -17840,7 +17841,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6">
       <c r="A38" t="s">
         <v>36</v>
       </c>
@@ -17860,7 +17861,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6">
       <c r="A39" t="s">
         <v>37</v>
       </c>
@@ -17880,7 +17881,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6">
       <c r="A40" t="s">
         <v>38</v>
       </c>
@@ -17900,7 +17901,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6">
       <c r="A41" t="s">
         <v>39</v>
       </c>
@@ -17920,7 +17921,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6">
       <c r="A42" t="s">
         <v>40</v>
       </c>
@@ -17940,7 +17941,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6">
       <c r="A43" t="s">
         <v>41</v>
       </c>
@@ -17960,7 +17961,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6">
       <c r="A44" t="s">
         <v>42</v>
       </c>
@@ -17980,7 +17981,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6">
       <c r="A45" t="s">
         <v>43</v>
       </c>
@@ -18000,7 +18001,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6">
       <c r="A46" t="s">
         <v>44</v>
       </c>
@@ -18020,7 +18021,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6">
       <c r="A47" t="s">
         <v>45</v>
       </c>
@@ -18040,7 +18041,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6">
       <c r="A48" t="s">
         <v>46</v>
       </c>
@@ -18060,7 +18061,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6">
       <c r="A49" t="s">
         <v>47</v>
       </c>
@@ -18080,7 +18081,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6">
       <c r="A50" t="s">
         <v>48</v>
       </c>
@@ -18100,7 +18101,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6">
       <c r="A51" t="s">
         <v>49</v>
       </c>
@@ -18120,7 +18121,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6">
       <c r="A52" t="s">
         <v>50</v>
       </c>
@@ -18140,7 +18141,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6">
       <c r="A53" t="s">
         <v>51</v>
       </c>
@@ -18160,7 +18161,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6">
       <c r="A54" t="s">
         <v>52</v>
       </c>
@@ -18180,7 +18181,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6">
       <c r="A55" t="s">
         <v>53</v>
       </c>
@@ -18200,7 +18201,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6">
       <c r="A56" t="s">
         <v>54</v>
       </c>
@@ -18220,7 +18221,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6">
       <c r="A57" t="s">
         <v>55</v>
       </c>
@@ -18240,7 +18241,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6">
       <c r="A58" t="s">
         <v>56</v>
       </c>
@@ -18260,7 +18261,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6">
       <c r="A59" t="s">
         <v>57</v>
       </c>
@@ -18280,7 +18281,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6">
       <c r="A60" t="s">
         <v>58</v>
       </c>
@@ -18300,7 +18301,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6">
       <c r="A61" t="s">
         <v>59</v>
       </c>
@@ -18320,7 +18321,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6">
       <c r="A62" t="s">
         <v>60</v>
       </c>
@@ -18340,7 +18341,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6">
       <c r="A63" t="s">
         <v>61</v>
       </c>
@@ -18360,7 +18361,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6">
       <c r="A64" t="s">
         <v>62</v>
       </c>
@@ -18380,7 +18381,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:6">
       <c r="A65" t="s">
         <v>63</v>
       </c>
@@ -18400,7 +18401,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:6">
       <c r="A66" t="s">
         <v>64</v>
       </c>
@@ -18420,7 +18421,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:6">
       <c r="A67" t="s">
         <v>65</v>
       </c>
@@ -18440,7 +18441,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:6">
       <c r="A68" t="s">
         <v>66</v>
       </c>
@@ -18460,7 +18461,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:6">
       <c r="A69" t="s">
         <v>67</v>
       </c>
@@ -18480,7 +18481,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:6">
       <c r="A70" t="s">
         <v>68</v>
       </c>
@@ -18500,7 +18501,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:6">
       <c r="A71" t="s">
         <v>69</v>
       </c>
@@ -18520,7 +18521,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:6">
       <c r="A72" t="s">
         <v>70</v>
       </c>
@@ -18540,7 +18541,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:6">
       <c r="A73" t="s">
         <v>71</v>
       </c>
@@ -18560,7 +18561,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:6">
       <c r="A74" t="s">
         <v>72</v>
       </c>
@@ -18580,7 +18581,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:6">
       <c r="A75" t="s">
         <v>73</v>
       </c>
@@ -18600,7 +18601,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:6">
       <c r="A76" t="s">
         <v>74</v>
       </c>
@@ -18620,7 +18621,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:6">
       <c r="A77" t="s">
         <v>75</v>
       </c>
@@ -18640,7 +18641,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:6">
       <c r="A78" t="s">
         <v>76</v>
       </c>
@@ -18660,7 +18661,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:6">
       <c r="A79" t="s">
         <v>77</v>
       </c>
@@ -18680,7 +18681,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:6">
       <c r="A80" t="s">
         <v>78</v>
       </c>
@@ -18700,7 +18701,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:6">
       <c r="A81" t="s">
         <v>79</v>
       </c>
@@ -18720,7 +18721,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:6">
       <c r="A82" t="s">
         <v>80</v>
       </c>
@@ -18740,7 +18741,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:6">
       <c r="A83" t="s">
         <v>81</v>
       </c>
@@ -18760,7 +18761,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:6">
       <c r="A84" t="s">
         <v>82</v>
       </c>
@@ -18780,7 +18781,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:6">
       <c r="A85" t="s">
         <v>83</v>
       </c>
@@ -18800,7 +18801,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:6">
       <c r="A86" t="s">
         <v>84</v>
       </c>
@@ -18820,7 +18821,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:6">
       <c r="A87" t="s">
         <v>85</v>
       </c>
@@ -18840,7 +18841,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:6">
       <c r="A88" t="s">
         <v>86</v>
       </c>
@@ -18860,7 +18861,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:6">
       <c r="A89" t="s">
         <v>87</v>
       </c>
@@ -18880,7 +18881,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:6">
       <c r="A90" t="s">
         <v>88</v>
       </c>
@@ -18900,7 +18901,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:6">
       <c r="A91" t="s">
         <v>89</v>
       </c>
@@ -18920,7 +18921,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:6">
       <c r="A92" t="s">
         <v>90</v>
       </c>
@@ -18940,7 +18941,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:6">
       <c r="A93" t="s">
         <v>91</v>
       </c>
@@ -18960,7 +18961,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:6">
       <c r="A94" t="s">
         <v>92</v>
       </c>
@@ -18980,7 +18981,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:6">
       <c r="A95" t="s">
         <v>93</v>
       </c>
@@ -19000,7 +19001,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:6">
       <c r="A96" t="s">
         <v>94</v>
       </c>
@@ -19020,7 +19021,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:6">
       <c r="A97" t="s">
         <v>95</v>
       </c>
@@ -19040,7 +19041,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:6">
       <c r="A98" t="s">
         <v>96</v>
       </c>
@@ -19060,7 +19061,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:6">
       <c r="A99" t="s">
         <v>97</v>
       </c>
@@ -19080,7 +19081,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:6">
       <c r="A100" t="s">
         <v>98</v>
       </c>
@@ -19100,7 +19101,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:6">
       <c r="A101" t="s">
         <v>99</v>
       </c>
@@ -19120,7 +19121,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:6">
       <c r="A102" t="s">
         <v>100</v>
       </c>
@@ -19140,7 +19141,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:6">
       <c r="A103" t="s">
         <v>101</v>
       </c>
@@ -19160,7 +19161,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:6">
       <c r="A104" t="s">
         <v>102</v>
       </c>
@@ -19180,7 +19181,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:6">
       <c r="A105" t="s">
         <v>103</v>
       </c>
@@ -19200,7 +19201,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:6">
       <c r="A106" t="s">
         <v>104</v>
       </c>
@@ -19220,7 +19221,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:6">
       <c r="A107" t="s">
         <v>105</v>
       </c>
@@ -19240,7 +19241,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:6">
       <c r="A108" t="s">
         <v>106</v>
       </c>
@@ -19260,7 +19261,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:6">
       <c r="A109" t="s">
         <v>107</v>
       </c>
@@ -19280,7 +19281,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:6">
       <c r="A110" t="s">
         <v>108</v>
       </c>
@@ -19300,7 +19301,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:6">
       <c r="A111" t="s">
         <v>109</v>
       </c>
@@ -19320,7 +19321,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:6">
       <c r="A112" t="s">
         <v>110</v>
       </c>
@@ -19340,7 +19341,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:6">
       <c r="A113" t="s">
         <v>111</v>
       </c>
@@ -19360,7 +19361,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:6">
       <c r="A114" t="s">
         <v>112</v>
       </c>
@@ -19380,7 +19381,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:6">
       <c r="A115" t="s">
         <v>113</v>
       </c>
@@ -19400,7 +19401,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:6">
       <c r="A116" t="s">
         <v>114</v>
       </c>
@@ -19420,7 +19421,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:6">
       <c r="A117" t="s">
         <v>115</v>
       </c>
@@ -19440,7 +19441,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:6">
       <c r="A118" t="s">
         <v>116</v>
       </c>
@@ -19460,7 +19461,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:6">
       <c r="A119" t="s">
         <v>117</v>
       </c>
@@ -19480,7 +19481,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:6">
       <c r="A120" t="s">
         <v>118</v>
       </c>
@@ -19500,7 +19501,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:6">
       <c r="A121" t="s">
         <v>119</v>
       </c>
@@ -19520,7 +19521,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:6">
       <c r="A122" t="s">
         <v>120</v>
       </c>
@@ -19540,7 +19541,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:6">
       <c r="A123" t="s">
         <v>121</v>
       </c>
@@ -19560,7 +19561,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:6">
       <c r="A124" t="s">
         <v>122</v>
       </c>
@@ -19580,7 +19581,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:6">
       <c r="A125" t="s">
         <v>123</v>
       </c>
@@ -19600,7 +19601,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:6">
       <c r="A126" t="s">
         <v>124</v>
       </c>
@@ -19620,7 +19621,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:6">
       <c r="A127" t="s">
         <v>125</v>
       </c>
@@ -19640,7 +19641,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:6">
       <c r="A128" t="s">
         <v>126</v>
       </c>
@@ -19660,7 +19661,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:6">
       <c r="A129" t="s">
         <v>127</v>
       </c>
@@ -19680,7 +19681,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:6">
       <c r="A130" t="s">
         <v>128</v>
       </c>
@@ -19700,7 +19701,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:6">
       <c r="A131" t="s">
         <v>129</v>
       </c>
@@ -19720,7 +19721,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:6">
       <c r="A132" t="s">
         <v>130</v>
       </c>
@@ -19740,7 +19741,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:6">
       <c r="A133" t="s">
         <v>131</v>
       </c>
@@ -19760,7 +19761,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:6">
       <c r="A134" t="s">
         <v>132</v>
       </c>
@@ -19780,7 +19781,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:6">
       <c r="A135" t="s">
         <v>133</v>
       </c>
@@ -19800,7 +19801,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:6">
       <c r="A136" t="s">
         <v>134</v>
       </c>
@@ -19820,7 +19821,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:6">
       <c r="A137" t="s">
         <v>135</v>
       </c>
@@ -19840,7 +19841,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:6">
       <c r="A138" t="s">
         <v>136</v>
       </c>
@@ -19860,7 +19861,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:6">
       <c r="A139" t="s">
         <v>137</v>
       </c>
@@ -19880,7 +19881,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:6">
       <c r="A140" t="s">
         <v>138</v>
       </c>
@@ -19900,7 +19901,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:6">
       <c r="A141" t="s">
         <v>139</v>
       </c>
@@ -19920,7 +19921,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:6">
       <c r="A142" t="s">
         <v>140</v>
       </c>
@@ -19940,7 +19941,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:6">
       <c r="A143" t="s">
         <v>141</v>
       </c>
@@ -19960,7 +19961,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:6">
       <c r="A144" t="s">
         <v>142</v>
       </c>
@@ -19980,7 +19981,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:6">
       <c r="A145" t="s">
         <v>143</v>
       </c>
@@ -20000,7 +20001,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:6">
       <c r="A146" t="s">
         <v>144</v>
       </c>
@@ -20020,7 +20021,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:6">
       <c r="A147" t="s">
         <v>145</v>
       </c>
@@ -20040,7 +20041,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:6">
       <c r="A148" t="s">
         <v>146</v>
       </c>
@@ -20060,7 +20061,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:6">
       <c r="A149" t="s">
         <v>147</v>
       </c>
@@ -20080,7 +20081,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:6">
       <c r="A150" t="s">
         <v>148</v>
       </c>
@@ -20100,7 +20101,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:6">
       <c r="A151" t="s">
         <v>149</v>
       </c>
@@ -20120,7 +20121,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:6">
       <c r="A152" t="s">
         <v>150</v>
       </c>
@@ -20140,7 +20141,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:6">
       <c r="A153" t="s">
         <v>151</v>
       </c>
@@ -20160,7 +20161,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:6">
       <c r="A154" t="s">
         <v>152</v>
       </c>
@@ -20180,7 +20181,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:6">
       <c r="A155" t="s">
         <v>153</v>
       </c>
@@ -20200,7 +20201,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:6">
       <c r="A156" t="s">
         <v>154</v>
       </c>
@@ -20220,7 +20221,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:6">
       <c r="A157" t="s">
         <v>155</v>
       </c>
@@ -20240,7 +20241,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:6">
       <c r="A158" t="s">
         <v>156</v>
       </c>
@@ -20260,7 +20261,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:6">
       <c r="A159" t="s">
         <v>157</v>
       </c>
@@ -20280,7 +20281,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:6">
       <c r="A160" t="s">
         <v>158</v>
       </c>
@@ -20300,7 +20301,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:6">
       <c r="A161" t="s">
         <v>159</v>
       </c>
@@ -20320,7 +20321,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:6">
       <c r="A162" t="s">
         <v>160</v>
       </c>
@@ -20340,7 +20341,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:6">
       <c r="A163" t="s">
         <v>161</v>
       </c>
@@ -20360,7 +20361,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:6">
       <c r="A164" t="s">
         <v>162</v>
       </c>
@@ -20380,7 +20381,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:6">
       <c r="A165" t="s">
         <v>163</v>
       </c>
@@ -20400,7 +20401,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:6">
       <c r="A166" t="s">
         <v>164</v>
       </c>
@@ -20420,7 +20421,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:6">
       <c r="A167" t="s">
         <v>165</v>
       </c>
@@ -20440,7 +20441,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:6">
       <c r="A168" t="s">
         <v>166</v>
       </c>
@@ -20460,7 +20461,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:6">
       <c r="A169" t="s">
         <v>167</v>
       </c>
@@ -20480,7 +20481,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:6">
       <c r="A170" t="s">
         <v>168</v>
       </c>
